--- a/results/roundabout_full.txt_50_ce_err.xlsx
+++ b/results/roundabout_full.txt_50_ce_err.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artyom\Documents\Projects\autonomous_vehicles1\path-planning-simulation\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BC07FFC-308F-4195-AEBE-ECF7A76FC881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8C4D12-34AD-4CD7-93B0-97871F1A0A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="roundabout_full.txt_50_ce_err" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -40,7 +51,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -579,6 +590,1013 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Total crosstrack</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> error, 50 km/h</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'roundabout_full.txt_50_ce_err'!$B$122:$E$123</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Pure Pursuit</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Stanley</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Stanley with lookahead</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hybrid Stanley and Pure Pursuit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'roundabout_full.txt_50_ce_err'!$B$124:$E$124</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>157.68779614386298</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62.470101401727725</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>118.04686837141959</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>112.69117926660499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-462C-4843-BAB2-A8AEB043B0C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1016982192"/>
+        <c:axId val="1016983024"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1016982192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Controller</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1016983024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1016983024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Total error, m</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1016982192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4326C3C7-E47B-4247-B819-3EC938EDE83D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -875,11 +1893,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E119"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E124"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="A120" sqref="A120:A150"/>
+      <selection activeCell="O109" sqref="O109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2868,7 +3886,44 @@
         <v>3.8953152190797899</v>
       </c>
     </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B123" t="str">
+        <f>B1</f>
+        <v>Pure Pursuit</v>
+      </c>
+      <c r="C123" t="str">
+        <f t="shared" ref="C123:E123" si="0">C1</f>
+        <v>Stanley</v>
+      </c>
+      <c r="D123" t="str">
+        <f t="shared" si="0"/>
+        <v>Stanley with lookahead</v>
+      </c>
+      <c r="E123" t="str">
+        <f t="shared" si="0"/>
+        <v>Hybrid Stanley and Pure Pursuit</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B124">
+        <f>SUM(B2:B119)</f>
+        <v>157.68779614386298</v>
+      </c>
+      <c r="C124">
+        <f t="shared" ref="C124:E124" si="1">SUM(C2:C119)</f>
+        <v>62.470101401727725</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="1"/>
+        <v>118.04686837141959</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="1"/>
+        <v>112.69117926660499</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/results/roundabout_full.txt_50_ce_err.xlsx
+++ b/results/roundabout_full.txt_50_ce_err.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artyom\Documents\Projects\autonomous_vehicles1\path-planning-simulation\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8C4D12-34AD-4CD7-93B0-97871F1A0A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517C31AB-ABCF-470E-973E-FFE2302A3D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="roundabout_full.txt_50_ce_err" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
     <t>Stanley with lookahead</t>
   </si>
   <si>
-    <t>Hybrid Stanley and Pure Pursuit</t>
+    <t>Combined Stanley and Pure Pursuit</t>
   </si>
 </sst>
 </file>
@@ -699,7 +699,7 @@
                   <c:v>Stanley with lookahead</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Hybrid Stanley and Pure Pursuit</c:v>
+                  <c:v>Combined Stanley and Pure Pursuit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1896,8 +1896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="O109" sqref="O109"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3901,7 +3901,7 @@
       </c>
       <c r="E123" t="str">
         <f t="shared" si="0"/>
-        <v>Hybrid Stanley and Pure Pursuit</v>
+        <v>Combined Stanley and Pure Pursuit</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
